--- a/data/Subset 1/Video Mosaic Grade 6 Dice.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 Dice.xlsx
@@ -577,12 +577,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">K, uh, R1, should we switch people back here? </t>
+          <t xml:space="preserve">K, uh, Teacher 1, should we switch people back here? </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -899,7 +899,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -995,7 +995,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1041,7 +1041,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1179,7 +1179,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1294,7 +1294,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1344,7 +1344,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1367,7 +1367,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1390,7 +1390,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1459,7 +1459,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1482,7 +1482,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1505,7 +1505,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1528,7 +1528,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1551,7 +1551,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1574,7 +1574,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1597,7 +1597,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1693,7 +1693,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1716,7 +1716,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1739,7 +1739,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1877,7 +1877,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1900,7 +1900,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1923,7 +1923,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1969,7 +1969,7 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2061,7 +2061,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2203,7 +2203,7 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2226,7 +2226,7 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2341,7 +2341,7 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2364,7 +2364,7 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2387,7 +2387,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2433,7 +2433,7 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2479,7 +2479,7 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2502,7 +2502,7 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2594,7 +2594,7 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2663,7 +2663,7 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2709,7 +2709,7 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2805,7 +2805,7 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -2851,7 +2851,7 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -2874,7 +2874,7 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -2943,7 +2943,7 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -2989,7 +2989,7 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3035,7 +3035,7 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3196,7 +3196,7 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3219,7 +3219,7 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3242,7 +3242,7 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3288,7 +3288,7 @@
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3407,7 +3407,7 @@
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3453,7 +3453,7 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3545,7 +3545,7 @@
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3614,7 +3614,7 @@
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3637,7 +3637,7 @@
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -3660,7 +3660,7 @@
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -3775,7 +3775,7 @@
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -3821,7 +3821,7 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -3844,7 +3844,7 @@
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -3917,7 +3917,7 @@
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -3940,7 +3940,7 @@
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -3963,7 +3963,7 @@
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4078,7 +4078,7 @@
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4193,7 +4193,7 @@
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4216,7 +4216,7 @@
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4285,7 +4285,7 @@
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4331,7 +4331,7 @@
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4377,7 +4377,7 @@
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4400,7 +4400,7 @@
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -4515,7 +4515,7 @@
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -4561,7 +4561,7 @@
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -4584,7 +4584,7 @@
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -4607,7 +4607,7 @@
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -4657,7 +4657,7 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -4680,7 +4680,7 @@
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -4703,7 +4703,7 @@
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -4726,7 +4726,7 @@
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -4818,7 +4818,7 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5604,7 +5604,7 @@
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -7360,7 +7360,7 @@
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -11217,7 +11217,7 @@
       <c r="C466" t="inlineStr"/>
       <c r="D466" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -12421,7 +12421,7 @@
       <c r="C518" t="inlineStr"/>
       <c r="D518" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -12471,7 +12471,7 @@
       <c r="C520" t="inlineStr"/>
       <c r="D520" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -13556,7 +13556,7 @@
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
@@ -20158,7 +20158,7 @@
       <c r="C853" t="inlineStr"/>
       <c r="D853" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E853" t="inlineStr">
@@ -21638,7 +21638,7 @@
       <c r="C917" t="inlineStr"/>
       <c r="D917" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E917" t="inlineStr">
@@ -29995,7 +29995,7 @@
       <c r="C1279" t="inlineStr"/>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1279" t="inlineStr">
@@ -30041,7 +30041,7 @@
       <c r="C1281" t="inlineStr"/>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1281" t="inlineStr">
@@ -30091,7 +30091,7 @@
       <c r="C1283" t="inlineStr"/>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1283" t="inlineStr">
@@ -30114,7 +30114,7 @@
       <c r="C1284" t="inlineStr"/>
       <c r="D1284" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1284" t="inlineStr">
@@ -30137,7 +30137,7 @@
       <c r="C1285" t="inlineStr"/>
       <c r="D1285" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1285" t="inlineStr">
@@ -30160,7 +30160,7 @@
       <c r="C1286" t="inlineStr"/>
       <c r="D1286" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1286" t="inlineStr">
@@ -30229,7 +30229,7 @@
       <c r="C1289" t="inlineStr"/>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1289" t="inlineStr">
@@ -30302,7 +30302,7 @@
       <c r="C1292" t="inlineStr"/>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1292" t="inlineStr">
@@ -30348,7 +30348,7 @@
       <c r="C1294" t="inlineStr"/>
       <c r="D1294" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1294" t="inlineStr">
@@ -30394,7 +30394,7 @@
       <c r="C1296" t="inlineStr"/>
       <c r="D1296" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1296" t="inlineStr">
@@ -31295,7 +31295,7 @@
       <c r="C1335" t="inlineStr"/>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr">
@@ -31433,7 +31433,7 @@
       <c r="C1341" t="inlineStr"/>
       <c r="D1341" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1341" t="inlineStr">
@@ -31479,7 +31479,7 @@
       <c r="C1343" t="inlineStr"/>
       <c r="D1343" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1343" t="inlineStr">
@@ -31552,7 +31552,7 @@
       <c r="C1346" t="inlineStr"/>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1346" t="inlineStr">
@@ -31621,7 +31621,7 @@
       <c r="C1349" t="inlineStr"/>
       <c r="D1349" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E1349" t="inlineStr">
@@ -31690,7 +31690,7 @@
       <c r="C1352" t="inlineStr"/>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E1352" t="inlineStr">
@@ -31736,7 +31736,7 @@
       <c r="C1354" t="inlineStr"/>
       <c r="D1354" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E1354" t="inlineStr">
@@ -31759,7 +31759,7 @@
       <c r="C1355" t="inlineStr"/>
       <c r="D1355" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E1355" t="inlineStr">
@@ -31782,7 +31782,7 @@
       <c r="C1356" t="inlineStr"/>
       <c r="D1356" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E1356" t="inlineStr">
@@ -31828,7 +31828,7 @@
       <c r="C1358" t="inlineStr"/>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E1358" t="inlineStr">
@@ -31897,7 +31897,7 @@
       <c r="C1361" t="inlineStr"/>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E1361" t="inlineStr">
@@ -32016,7 +32016,7 @@
       <c r="C1366" t="inlineStr"/>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E1366" t="inlineStr">
@@ -32062,7 +32062,7 @@
       <c r="C1368" t="inlineStr"/>
       <c r="D1368" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E1368" t="inlineStr">
@@ -32223,7 +32223,7 @@
       <c r="C1375" t="inlineStr"/>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E1375" t="inlineStr">
@@ -34577,7 +34577,7 @@
       <c r="C1477" t="inlineStr"/>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1477" t="inlineStr">
@@ -34600,7 +34600,7 @@
       <c r="C1478" t="inlineStr"/>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1478" t="inlineStr">
@@ -35984,7 +35984,7 @@
       <c r="C1538" t="inlineStr"/>
       <c r="D1538" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1538" t="inlineStr">
@@ -36053,7 +36053,7 @@
       <c r="C1541" t="inlineStr"/>
       <c r="D1541" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1541" t="inlineStr">
@@ -36076,7 +36076,7 @@
       <c r="C1542" t="inlineStr"/>
       <c r="D1542" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1542" t="inlineStr">
@@ -36099,7 +36099,7 @@
       <c r="C1543" t="inlineStr"/>
       <c r="D1543" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1543" t="inlineStr">
@@ -36176,7 +36176,7 @@
       <c r="C1546" t="inlineStr"/>
       <c r="D1546" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1546" t="inlineStr">
@@ -36199,7 +36199,7 @@
       <c r="C1547" t="inlineStr"/>
       <c r="D1547" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1547" t="inlineStr">
@@ -36222,12 +36222,12 @@
       <c r="C1548" t="inlineStr"/>
       <c r="D1548" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1548" t="inlineStr">
         <is>
-          <t xml:space="preserve">We have to, um, thank R2 for making that, again. </t>
+          <t xml:space="preserve">We have to, um, thank Teacher 2 for making that, again. </t>
         </is>
       </c>
       <c r="F1548" t="inlineStr">
@@ -36245,7 +36245,7 @@
       <c r="C1549" t="inlineStr"/>
       <c r="D1549" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1549" t="inlineStr">
@@ -36268,7 +36268,7 @@
       <c r="C1550" t="inlineStr"/>
       <c r="D1550" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E1550" t="inlineStr">
@@ -36295,7 +36295,7 @@
       <c r="C1551" t="inlineStr"/>
       <c r="D1551" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1551" t="inlineStr">
@@ -36318,7 +36318,7 @@
       <c r="C1552" t="inlineStr"/>
       <c r="D1552" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1552" t="inlineStr">
@@ -36364,7 +36364,7 @@
       <c r="C1554" t="inlineStr"/>
       <c r="D1554" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1554" t="inlineStr">
@@ -36410,7 +36410,7 @@
       <c r="C1556" t="inlineStr"/>
       <c r="D1556" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1556" t="inlineStr">
@@ -36502,7 +36502,7 @@
       <c r="C1560" t="inlineStr"/>
       <c r="D1560" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1560" t="inlineStr">
@@ -36525,7 +36525,7 @@
       <c r="C1561" t="inlineStr"/>
       <c r="D1561" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1561" t="inlineStr">
@@ -36548,7 +36548,7 @@
       <c r="C1562" t="inlineStr"/>
       <c r="D1562" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1562" t="inlineStr">
@@ -36571,7 +36571,7 @@
       <c r="C1563" t="inlineStr"/>
       <c r="D1563" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1563" t="inlineStr">
@@ -36594,7 +36594,7 @@
       <c r="C1564" t="inlineStr"/>
       <c r="D1564" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1564" t="inlineStr">
@@ -36686,7 +36686,7 @@
       <c r="C1568" t="inlineStr"/>
       <c r="D1568" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1568" t="inlineStr">
@@ -36709,7 +36709,7 @@
       <c r="C1569" t="inlineStr"/>
       <c r="D1569" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1569" t="inlineStr">
@@ -36824,7 +36824,7 @@
       <c r="C1574" t="inlineStr"/>
       <c r="D1574" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1574" t="inlineStr">
@@ -36847,7 +36847,7 @@
       <c r="C1575" t="inlineStr"/>
       <c r="D1575" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1575" t="inlineStr">
@@ -36870,7 +36870,7 @@
       <c r="C1576" t="inlineStr"/>
       <c r="D1576" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1576" t="inlineStr">
@@ -36893,7 +36893,7 @@
       <c r="C1577" t="inlineStr"/>
       <c r="D1577" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1577" t="inlineStr">
@@ -36916,7 +36916,7 @@
       <c r="C1578" t="inlineStr"/>
       <c r="D1578" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1578" t="inlineStr">
@@ -36939,7 +36939,7 @@
       <c r="C1579" t="inlineStr"/>
       <c r="D1579" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1579" t="inlineStr">
@@ -36985,7 +36985,7 @@
       <c r="C1581" t="inlineStr"/>
       <c r="D1581" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1581" t="inlineStr">
@@ -37031,7 +37031,7 @@
       <c r="C1583" t="inlineStr"/>
       <c r="D1583" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1583" t="inlineStr">
@@ -37077,7 +37077,7 @@
       <c r="C1585" t="inlineStr"/>
       <c r="D1585" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1585" t="inlineStr">
@@ -37100,7 +37100,7 @@
       <c r="C1586" t="inlineStr"/>
       <c r="D1586" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1586" t="inlineStr">
@@ -37123,7 +37123,7 @@
       <c r="C1587" t="inlineStr"/>
       <c r="D1587" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1587" t="inlineStr">
@@ -37173,7 +37173,7 @@
       <c r="C1589" t="inlineStr"/>
       <c r="D1589" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1589" t="inlineStr">
@@ -37196,7 +37196,7 @@
       <c r="C1590" t="inlineStr"/>
       <c r="D1590" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1590" t="inlineStr">
@@ -37288,7 +37288,7 @@
       <c r="C1594" t="inlineStr"/>
       <c r="D1594" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1594" t="inlineStr">
@@ -37311,7 +37311,7 @@
       <c r="C1595" t="inlineStr"/>
       <c r="D1595" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1595" t="inlineStr">
@@ -37403,7 +37403,7 @@
       <c r="C1599" t="inlineStr"/>
       <c r="D1599" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1599" t="inlineStr">
@@ -37426,7 +37426,7 @@
       <c r="C1600" t="inlineStr"/>
       <c r="D1600" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1600" t="inlineStr">
@@ -37472,7 +37472,7 @@
       <c r="C1602" t="inlineStr"/>
       <c r="D1602" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1602" t="inlineStr">
@@ -37495,7 +37495,7 @@
       <c r="C1603" t="inlineStr"/>
       <c r="D1603" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1603" t="inlineStr">
@@ -37541,7 +37541,7 @@
       <c r="C1605" t="inlineStr"/>
       <c r="D1605" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1605" t="inlineStr">
@@ -37564,7 +37564,7 @@
       <c r="C1606" t="inlineStr"/>
       <c r="D1606" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1606" t="inlineStr">
@@ -37656,7 +37656,7 @@
       <c r="C1610" t="inlineStr"/>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1610" t="inlineStr">
@@ -37679,7 +37679,7 @@
       <c r="C1611" t="inlineStr"/>
       <c r="D1611" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1611" t="inlineStr">
@@ -37863,7 +37863,7 @@
       <c r="C1619" t="inlineStr"/>
       <c r="D1619" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1619" t="inlineStr">
@@ -37886,7 +37886,7 @@
       <c r="C1620" t="inlineStr"/>
       <c r="D1620" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1620" t="inlineStr">
@@ -37909,7 +37909,7 @@
       <c r="C1621" t="inlineStr"/>
       <c r="D1621" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1621" t="inlineStr">
@@ -37932,7 +37932,7 @@
       <c r="C1622" t="inlineStr"/>
       <c r="D1622" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1622" t="inlineStr">
@@ -37955,7 +37955,7 @@
       <c r="C1623" t="inlineStr"/>
       <c r="D1623" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1623" t="inlineStr">
@@ -37978,7 +37978,7 @@
       <c r="C1624" t="inlineStr"/>
       <c r="D1624" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1624" t="inlineStr">
@@ -38024,7 +38024,7 @@
       <c r="C1626" t="inlineStr"/>
       <c r="D1626" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1626" t="inlineStr">
@@ -38047,7 +38047,7 @@
       <c r="C1627" t="inlineStr"/>
       <c r="D1627" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1627" t="inlineStr">
@@ -38139,7 +38139,7 @@
       <c r="C1631" t="inlineStr"/>
       <c r="D1631" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1631" t="inlineStr">
@@ -38162,7 +38162,7 @@
       <c r="C1632" t="inlineStr"/>
       <c r="D1632" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1632" t="inlineStr">
@@ -38212,7 +38212,7 @@
       <c r="C1634" t="inlineStr"/>
       <c r="D1634" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1634" t="inlineStr">
@@ -38235,7 +38235,7 @@
       <c r="C1635" t="inlineStr"/>
       <c r="D1635" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1635" t="inlineStr">
@@ -38327,7 +38327,7 @@
       <c r="C1639" t="inlineStr"/>
       <c r="D1639" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1639" t="inlineStr">
@@ -38350,7 +38350,7 @@
       <c r="C1640" t="inlineStr"/>
       <c r="D1640" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1640" t="inlineStr">
@@ -38373,7 +38373,7 @@
       <c r="C1641" t="inlineStr"/>
       <c r="D1641" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1641" t="inlineStr">
@@ -38419,7 +38419,7 @@
       <c r="C1643" t="inlineStr"/>
       <c r="D1643" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1643" t="inlineStr">
@@ -38442,7 +38442,7 @@
       <c r="C1644" t="inlineStr"/>
       <c r="D1644" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1644" t="inlineStr">
@@ -38488,7 +38488,7 @@
       <c r="C1646" t="inlineStr"/>
       <c r="D1646" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1646" t="inlineStr">
@@ -38511,7 +38511,7 @@
       <c r="C1647" t="inlineStr"/>
       <c r="D1647" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1647" t="inlineStr">
@@ -38534,7 +38534,7 @@
       <c r="C1648" t="inlineStr"/>
       <c r="D1648" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1648" t="inlineStr">
@@ -38557,7 +38557,7 @@
       <c r="C1649" t="inlineStr"/>
       <c r="D1649" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1649" t="inlineStr">
@@ -38580,7 +38580,7 @@
       <c r="C1650" t="inlineStr"/>
       <c r="D1650" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1650" t="inlineStr">
@@ -38626,7 +38626,7 @@
       <c r="C1652" t="inlineStr"/>
       <c r="D1652" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1652" t="inlineStr">
@@ -38676,7 +38676,7 @@
       <c r="C1654" t="inlineStr"/>
       <c r="D1654" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1654" t="inlineStr">
@@ -38699,7 +38699,7 @@
       <c r="C1655" t="inlineStr"/>
       <c r="D1655" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1655" t="inlineStr">
@@ -38722,7 +38722,7 @@
       <c r="C1656" t="inlineStr"/>
       <c r="D1656" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1656" t="inlineStr">
@@ -38768,7 +38768,7 @@
       <c r="C1658" t="inlineStr"/>
       <c r="D1658" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1658" t="inlineStr">
@@ -38791,7 +38791,7 @@
       <c r="C1659" t="inlineStr"/>
       <c r="D1659" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1659" t="inlineStr">
@@ -38814,7 +38814,7 @@
       <c r="C1660" t="inlineStr"/>
       <c r="D1660" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1660" t="inlineStr">
@@ -38837,7 +38837,7 @@
       <c r="C1661" t="inlineStr"/>
       <c r="D1661" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1661" t="inlineStr">
@@ -38860,7 +38860,7 @@
       <c r="C1662" t="inlineStr"/>
       <c r="D1662" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1662" t="inlineStr">
@@ -38929,7 +38929,7 @@
       <c r="C1665" t="inlineStr"/>
       <c r="D1665" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1665" t="inlineStr">
@@ -39002,7 +39002,7 @@
       <c r="C1668" t="inlineStr"/>
       <c r="D1668" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1668" t="inlineStr">
@@ -39025,7 +39025,7 @@
       <c r="C1669" t="inlineStr"/>
       <c r="D1669" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1669" t="inlineStr">
@@ -39075,7 +39075,7 @@
       <c r="C1671" t="inlineStr"/>
       <c r="D1671" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1671" t="inlineStr">
@@ -39098,7 +39098,7 @@
       <c r="C1672" t="inlineStr"/>
       <c r="D1672" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1672" t="inlineStr">
@@ -39148,7 +39148,7 @@
       <c r="C1674" t="inlineStr"/>
       <c r="D1674" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1674" t="inlineStr">
@@ -39171,7 +39171,7 @@
       <c r="C1675" t="inlineStr"/>
       <c r="D1675" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1675" t="inlineStr">
@@ -39240,7 +39240,7 @@
       <c r="C1678" t="inlineStr"/>
       <c r="D1678" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1678" t="inlineStr">
@@ -39263,7 +39263,7 @@
       <c r="C1679" t="inlineStr"/>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1679" t="inlineStr">
@@ -39309,7 +39309,7 @@
       <c r="C1681" t="inlineStr"/>
       <c r="D1681" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1681" t="inlineStr">
@@ -39332,7 +39332,7 @@
       <c r="C1682" t="inlineStr"/>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1682" t="inlineStr">
@@ -39378,7 +39378,7 @@
       <c r="C1684" t="inlineStr"/>
       <c r="D1684" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1684" t="inlineStr">
@@ -39608,7 +39608,7 @@
       <c r="C1694" t="inlineStr"/>
       <c r="D1694" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1694" t="inlineStr">
@@ -39677,7 +39677,7 @@
       <c r="C1697" t="inlineStr"/>
       <c r="D1697" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1697" t="inlineStr">
@@ -39796,7 +39796,7 @@
       <c r="C1702" t="inlineStr"/>
       <c r="D1702" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1702" t="inlineStr">
@@ -39934,7 +39934,7 @@
       <c r="C1708" t="inlineStr"/>
       <c r="D1708" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1708" t="inlineStr">
@@ -39957,7 +39957,7 @@
       <c r="C1709" t="inlineStr"/>
       <c r="D1709" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1709" t="inlineStr">
@@ -40026,7 +40026,7 @@
       <c r="C1712" t="inlineStr"/>
       <c r="D1712" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1712" t="inlineStr">
@@ -40049,7 +40049,7 @@
       <c r="C1713" t="inlineStr"/>
       <c r="D1713" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1713" t="inlineStr">
@@ -40118,7 +40118,7 @@
       <c r="C1716" t="inlineStr"/>
       <c r="D1716" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1716" t="inlineStr">
@@ -40141,7 +40141,7 @@
       <c r="C1717" t="inlineStr"/>
       <c r="D1717" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1717" t="inlineStr">
@@ -40164,7 +40164,7 @@
       <c r="C1718" t="inlineStr"/>
       <c r="D1718" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1718" t="inlineStr">
@@ -40210,7 +40210,7 @@
       <c r="C1720" t="inlineStr"/>
       <c r="D1720" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1720" t="inlineStr">
@@ -40624,7 +40624,7 @@
       <c r="C1738" t="inlineStr"/>
       <c r="D1738" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1738" t="inlineStr">
@@ -40973,7 +40973,7 @@
       <c r="C1753" t="inlineStr"/>
       <c r="D1753" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1753" t="inlineStr">
@@ -40996,7 +40996,7 @@
       <c r="C1754" t="inlineStr"/>
       <c r="D1754" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1754" t="inlineStr">
@@ -41157,7 +41157,7 @@
       <c r="C1761" t="inlineStr"/>
       <c r="D1761" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1761" t="inlineStr">
@@ -41759,7 +41759,7 @@
       <c r="C1787" t="inlineStr"/>
       <c r="D1787" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1787" t="inlineStr">
@@ -41782,7 +41782,7 @@
       <c r="C1788" t="inlineStr"/>
       <c r="D1788" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1788" t="inlineStr">
@@ -41851,7 +41851,7 @@
       <c r="C1791" t="inlineStr"/>
       <c r="D1791" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1791" t="inlineStr">
@@ -42196,7 +42196,7 @@
       <c r="C1806" t="inlineStr"/>
       <c r="D1806" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1806" t="inlineStr">
@@ -42242,7 +42242,7 @@
       <c r="C1808" t="inlineStr"/>
       <c r="D1808" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1808" t="inlineStr">
@@ -42265,7 +42265,7 @@
       <c r="C1809" t="inlineStr"/>
       <c r="D1809" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1809" t="inlineStr">
@@ -42288,7 +42288,7 @@
       <c r="C1810" t="inlineStr"/>
       <c r="D1810" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1810" t="inlineStr">
@@ -42311,7 +42311,7 @@
       <c r="C1811" t="inlineStr"/>
       <c r="D1811" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1811" t="inlineStr">
@@ -42660,7 +42660,7 @@
       <c r="C1826" t="inlineStr"/>
       <c r="D1826" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1826" t="inlineStr">
@@ -42683,7 +42683,7 @@
       <c r="C1827" t="inlineStr"/>
       <c r="D1827" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1827" t="inlineStr">
@@ -42706,7 +42706,7 @@
       <c r="C1828" t="inlineStr"/>
       <c r="D1828" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1828" t="inlineStr">
@@ -42729,7 +42729,7 @@
       <c r="C1829" t="inlineStr"/>
       <c r="D1829" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1829" t="inlineStr">
@@ -42752,7 +42752,7 @@
       <c r="C1830" t="inlineStr"/>
       <c r="D1830" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1830" t="inlineStr">
@@ -42775,7 +42775,7 @@
       <c r="C1831" t="inlineStr"/>
       <c r="D1831" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1831" t="inlineStr">
@@ -42917,7 +42917,7 @@
       <c r="C1837" t="inlineStr"/>
       <c r="D1837" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1837" t="inlineStr">
@@ -42940,7 +42940,7 @@
       <c r="C1838" t="inlineStr"/>
       <c r="D1838" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1838" t="inlineStr">
@@ -43009,7 +43009,7 @@
       <c r="C1841" t="inlineStr"/>
       <c r="D1841" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1841" t="inlineStr">
@@ -43032,7 +43032,7 @@
       <c r="C1842" t="inlineStr"/>
       <c r="D1842" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1842" t="inlineStr">
@@ -43055,7 +43055,7 @@
       <c r="C1843" t="inlineStr"/>
       <c r="D1843" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1843" t="inlineStr">
@@ -43101,7 +43101,7 @@
       <c r="C1845" t="inlineStr"/>
       <c r="D1845" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1845" t="inlineStr">
@@ -43239,7 +43239,7 @@
       <c r="C1851" t="inlineStr"/>
       <c r="D1851" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1851" t="inlineStr">
@@ -43450,7 +43450,7 @@
       <c r="C1860" t="inlineStr"/>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1860" t="inlineStr">
@@ -43772,7 +43772,7 @@
       <c r="C1874" t="inlineStr"/>
       <c r="D1874" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1874" t="inlineStr">
@@ -43795,7 +43795,7 @@
       <c r="C1875" t="inlineStr"/>
       <c r="D1875" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1875" t="inlineStr">
@@ -43864,7 +43864,7 @@
       <c r="C1878" t="inlineStr"/>
       <c r="D1878" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1878" t="inlineStr">
@@ -44002,7 +44002,7 @@
       <c r="C1884" t="inlineStr"/>
       <c r="D1884" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1884" t="inlineStr">
@@ -44025,7 +44025,7 @@
       <c r="C1885" t="inlineStr"/>
       <c r="D1885" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1885" t="inlineStr">
@@ -44048,7 +44048,7 @@
       <c r="C1886" t="inlineStr"/>
       <c r="D1886" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1886" t="inlineStr">
@@ -44071,7 +44071,7 @@
       <c r="C1887" t="inlineStr"/>
       <c r="D1887" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1887" t="inlineStr">
@@ -44117,7 +44117,7 @@
       <c r="C1889" t="inlineStr"/>
       <c r="D1889" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1889" t="inlineStr">
@@ -44186,7 +44186,7 @@
       <c r="C1892" t="inlineStr"/>
       <c r="D1892" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1892" t="inlineStr">
@@ -44282,7 +44282,7 @@
       <c r="C1896" t="inlineStr"/>
       <c r="D1896" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1896" t="inlineStr">
@@ -44397,7 +44397,7 @@
       <c r="C1901" t="inlineStr"/>
       <c r="D1901" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1901" t="inlineStr">
@@ -44677,7 +44677,7 @@
       <c r="C1913" t="inlineStr"/>
       <c r="D1913" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1913" t="inlineStr">
@@ -44700,7 +44700,7 @@
       <c r="C1914" t="inlineStr"/>
       <c r="D1914" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1914" t="inlineStr">
@@ -44723,7 +44723,7 @@
       <c r="C1915" t="inlineStr"/>
       <c r="D1915" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1915" t="inlineStr">
@@ -44746,7 +44746,7 @@
       <c r="C1916" t="inlineStr"/>
       <c r="D1916" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1916" t="inlineStr">
@@ -44792,7 +44792,7 @@
       <c r="C1918" t="inlineStr"/>
       <c r="D1918" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1918" t="inlineStr">
@@ -44953,7 +44953,7 @@
       <c r="C1925" t="inlineStr"/>
       <c r="D1925" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1925" t="inlineStr">
@@ -45003,7 +45003,7 @@
       <c r="C1927" t="inlineStr"/>
       <c r="D1927" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1927" t="inlineStr">
@@ -45026,7 +45026,7 @@
       <c r="C1928" t="inlineStr"/>
       <c r="D1928" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1928" t="inlineStr">
@@ -45049,7 +45049,7 @@
       <c r="C1929" t="inlineStr"/>
       <c r="D1929" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1929" t="inlineStr">
@@ -45072,7 +45072,7 @@
       <c r="C1930" t="inlineStr"/>
       <c r="D1930" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1930" t="inlineStr">
@@ -45095,7 +45095,7 @@
       <c r="C1931" t="inlineStr"/>
       <c r="D1931" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1931" t="inlineStr">
@@ -45191,7 +45191,7 @@
       <c r="C1935" t="inlineStr"/>
       <c r="D1935" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1935" t="inlineStr">
@@ -45214,7 +45214,7 @@
       <c r="C1936" t="inlineStr"/>
       <c r="D1936" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1936" t="inlineStr">
@@ -45237,7 +45237,7 @@
       <c r="C1937" t="inlineStr"/>
       <c r="D1937" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1937" t="inlineStr">
@@ -45283,7 +45283,7 @@
       <c r="C1939" t="inlineStr"/>
       <c r="D1939" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1939" t="inlineStr">
@@ -45306,7 +45306,7 @@
       <c r="C1940" t="inlineStr"/>
       <c r="D1940" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1940" t="inlineStr">
@@ -45536,7 +45536,7 @@
       <c r="C1950" t="inlineStr"/>
       <c r="D1950" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1950" t="inlineStr">
@@ -45605,7 +45605,7 @@
       <c r="C1953" t="inlineStr"/>
       <c r="D1953" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E1953" t="inlineStr">
@@ -45651,7 +45651,7 @@
       <c r="C1955" t="inlineStr"/>
       <c r="D1955" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1955" t="inlineStr">
@@ -45674,7 +45674,7 @@
       <c r="C1956" t="inlineStr"/>
       <c r="D1956" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1956" t="inlineStr">
@@ -45697,7 +45697,7 @@
       <c r="C1957" t="inlineStr"/>
       <c r="D1957" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E1957" t="inlineStr">
@@ -45720,7 +45720,7 @@
       <c r="C1958" t="inlineStr"/>
       <c r="D1958" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E1958" t="inlineStr">
@@ -45789,7 +45789,7 @@
       <c r="C1961" t="inlineStr"/>
       <c r="D1961" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1961" t="inlineStr">
@@ -45812,7 +45812,7 @@
       <c r="C1962" t="inlineStr"/>
       <c r="D1962" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1962" t="inlineStr">
@@ -46184,7 +46184,7 @@
       <c r="C1978" t="inlineStr"/>
       <c r="D1978" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1978" t="inlineStr">
@@ -46207,7 +46207,7 @@
       <c r="C1979" t="inlineStr"/>
       <c r="D1979" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E1979" t="inlineStr">
@@ -46322,7 +46322,7 @@
       <c r="C1984" t="inlineStr"/>
       <c r="D1984" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1984" t="inlineStr">
@@ -46621,7 +46621,7 @@
       <c r="C1997" t="inlineStr"/>
       <c r="D1997" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1997" t="inlineStr">
@@ -46694,7 +46694,7 @@
       <c r="C2000" t="inlineStr"/>
       <c r="D2000" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2000" t="inlineStr">
@@ -46855,7 +46855,7 @@
       <c r="C2007" t="inlineStr"/>
       <c r="D2007" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2007" t="inlineStr">
@@ -46878,7 +46878,7 @@
       <c r="C2008" t="inlineStr"/>
       <c r="D2008" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2008" t="inlineStr">
@@ -46970,7 +46970,7 @@
       <c r="C2012" t="inlineStr"/>
       <c r="D2012" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2012" t="inlineStr">
@@ -46993,7 +46993,7 @@
       <c r="C2013" t="inlineStr"/>
       <c r="D2013" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2013" t="inlineStr">
@@ -47039,7 +47039,7 @@
       <c r="C2015" t="inlineStr"/>
       <c r="D2015" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2015" t="inlineStr">
@@ -47062,7 +47062,7 @@
       <c r="C2016" t="inlineStr"/>
       <c r="D2016" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2016" t="inlineStr">
@@ -47131,7 +47131,7 @@
       <c r="C2019" t="inlineStr"/>
       <c r="D2019" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2019" t="inlineStr">
@@ -47154,7 +47154,7 @@
       <c r="C2020" t="inlineStr"/>
       <c r="D2020" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2020" t="inlineStr">
@@ -47177,7 +47177,7 @@
       <c r="C2021" t="inlineStr"/>
       <c r="D2021" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2021" t="inlineStr">
@@ -47223,7 +47223,7 @@
       <c r="C2023" t="inlineStr"/>
       <c r="D2023" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2023" t="inlineStr">
@@ -47269,7 +47269,7 @@
       <c r="C2025" t="inlineStr"/>
       <c r="D2025" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2025" t="inlineStr">
@@ -47292,7 +47292,7 @@
       <c r="C2026" t="inlineStr"/>
       <c r="D2026" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2026" t="inlineStr">
@@ -47315,7 +47315,7 @@
       <c r="C2027" t="inlineStr"/>
       <c r="D2027" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2027" t="inlineStr">
@@ -47430,7 +47430,7 @@
       <c r="C2032" t="inlineStr"/>
       <c r="D2032" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2032" t="inlineStr">
@@ -47453,7 +47453,7 @@
       <c r="C2033" t="inlineStr"/>
       <c r="D2033" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2033" t="inlineStr">
@@ -47499,7 +47499,7 @@
       <c r="C2035" t="inlineStr"/>
       <c r="D2035" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2035" t="inlineStr">
@@ -47779,7 +47779,7 @@
       <c r="C2047" t="inlineStr"/>
       <c r="D2047" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2047" t="inlineStr">
@@ -47825,7 +47825,7 @@
       <c r="C2049" t="inlineStr"/>
       <c r="D2049" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2049" t="inlineStr">
@@ -47871,7 +47871,7 @@
       <c r="C2051" t="inlineStr"/>
       <c r="D2051" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2051" t="inlineStr">
@@ -47963,7 +47963,7 @@
       <c r="C2055" t="inlineStr"/>
       <c r="D2055" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2055" t="inlineStr">
@@ -48032,7 +48032,7 @@
       <c r="C2058" t="inlineStr"/>
       <c r="D2058" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2058" t="inlineStr">
@@ -48078,7 +48078,7 @@
       <c r="C2060" t="inlineStr"/>
       <c r="D2060" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2060" t="inlineStr">
@@ -48147,7 +48147,7 @@
       <c r="C2063" t="inlineStr"/>
       <c r="D2063" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2063" t="inlineStr">
@@ -48193,7 +48193,7 @@
       <c r="C2065" t="inlineStr"/>
       <c r="D2065" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2065" t="inlineStr">
@@ -48239,7 +48239,7 @@
       <c r="C2067" t="inlineStr"/>
       <c r="D2067" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2067" t="inlineStr">
@@ -48308,7 +48308,7 @@
       <c r="C2070" t="inlineStr"/>
       <c r="D2070" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2070" t="inlineStr">
@@ -48473,7 +48473,7 @@
       <c r="C2077" t="inlineStr"/>
       <c r="D2077" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2077" t="inlineStr">
@@ -48496,7 +48496,7 @@
       <c r="C2078" t="inlineStr"/>
       <c r="D2078" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2078" t="inlineStr">
@@ -48542,7 +48542,7 @@
       <c r="C2080" t="inlineStr"/>
       <c r="D2080" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2080" t="inlineStr">
@@ -48565,7 +48565,7 @@
       <c r="C2081" t="inlineStr"/>
       <c r="D2081" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2081" t="inlineStr">
@@ -48588,7 +48588,7 @@
       <c r="C2082" t="inlineStr"/>
       <c r="D2082" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2082" t="inlineStr">
@@ -48611,7 +48611,7 @@
       <c r="C2083" t="inlineStr"/>
       <c r="D2083" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2083" t="inlineStr">
@@ -48661,7 +48661,7 @@
       <c r="C2085" t="inlineStr"/>
       <c r="D2085" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2085" t="inlineStr">
@@ -48684,7 +48684,7 @@
       <c r="C2086" t="inlineStr"/>
       <c r="D2086" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2086" t="inlineStr">
@@ -48707,7 +48707,7 @@
       <c r="C2087" t="inlineStr"/>
       <c r="D2087" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2087" t="inlineStr">
@@ -48730,7 +48730,7 @@
       <c r="C2088" t="inlineStr"/>
       <c r="D2088" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2088" t="inlineStr">
@@ -48753,7 +48753,7 @@
       <c r="C2089" t="inlineStr"/>
       <c r="D2089" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2089" t="inlineStr">
@@ -48776,7 +48776,7 @@
       <c r="C2090" t="inlineStr"/>
       <c r="D2090" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2090" t="inlineStr">
@@ -48799,7 +48799,7 @@
       <c r="C2091" t="inlineStr"/>
       <c r="D2091" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2091" t="inlineStr">
@@ -48822,7 +48822,7 @@
       <c r="C2092" t="inlineStr"/>
       <c r="D2092" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2092" t="inlineStr">
@@ -49029,7 +49029,7 @@
       <c r="C2101" t="inlineStr"/>
       <c r="D2101" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2101" t="inlineStr">
@@ -49213,7 +49213,7 @@
       <c r="C2109" t="inlineStr"/>
       <c r="D2109" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2109" t="inlineStr">
@@ -49236,7 +49236,7 @@
       <c r="C2110" t="inlineStr"/>
       <c r="D2110" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2110" t="inlineStr">
@@ -49493,7 +49493,7 @@
       <c r="C2121" t="inlineStr"/>
       <c r="D2121" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2121" t="inlineStr">
@@ -49608,7 +49608,7 @@
       <c r="C2126" t="inlineStr"/>
       <c r="D2126" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2126" t="inlineStr">
@@ -49631,7 +49631,7 @@
       <c r="C2127" t="inlineStr"/>
       <c r="D2127" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2127" t="inlineStr">
@@ -49677,7 +49677,7 @@
       <c r="C2129" t="inlineStr"/>
       <c r="D2129" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2129" t="inlineStr">
@@ -49700,7 +49700,7 @@
       <c r="C2130" t="inlineStr"/>
       <c r="D2130" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2130" t="inlineStr">
@@ -49746,7 +49746,7 @@
       <c r="C2132" t="inlineStr"/>
       <c r="D2132" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2132" t="inlineStr">
@@ -49815,7 +49815,7 @@
       <c r="C2135" t="inlineStr"/>
       <c r="D2135" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2135" t="inlineStr">
@@ -49930,7 +49930,7 @@
       <c r="C2140" t="inlineStr"/>
       <c r="D2140" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2140" t="inlineStr">
@@ -50233,7 +50233,7 @@
       <c r="C2153" t="inlineStr"/>
       <c r="D2153" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2153" t="inlineStr">
@@ -50279,7 +50279,7 @@
       <c r="C2155" t="inlineStr"/>
       <c r="D2155" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2155" t="inlineStr">
@@ -50302,7 +50302,7 @@
       <c r="C2156" t="inlineStr"/>
       <c r="D2156" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2156" t="inlineStr">
@@ -50348,7 +50348,7 @@
       <c r="C2158" t="inlineStr"/>
       <c r="D2158" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2158" t="inlineStr">
@@ -50444,7 +50444,7 @@
       <c r="C2162" t="inlineStr"/>
       <c r="D2162" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2162" t="inlineStr">
@@ -50467,7 +50467,7 @@
       <c r="C2163" t="inlineStr"/>
       <c r="D2163" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2163" t="inlineStr">
@@ -50517,7 +50517,7 @@
       <c r="C2165" t="inlineStr"/>
       <c r="D2165" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2165" t="inlineStr">
@@ -50563,7 +50563,7 @@
       <c r="C2167" t="inlineStr"/>
       <c r="D2167" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2167" t="inlineStr">
@@ -50586,7 +50586,7 @@
       <c r="C2168" t="inlineStr"/>
       <c r="D2168" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2168" t="inlineStr">
@@ -50609,7 +50609,7 @@
       <c r="C2169" t="inlineStr"/>
       <c r="D2169" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2169" t="inlineStr">
@@ -50678,7 +50678,7 @@
       <c r="C2172" t="inlineStr"/>
       <c r="D2172" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2172" t="inlineStr">
@@ -50770,7 +50770,7 @@
       <c r="C2176" t="inlineStr"/>
       <c r="D2176" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2176" t="inlineStr">
@@ -50816,7 +50816,7 @@
       <c r="C2178" t="inlineStr"/>
       <c r="D2178" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2178" t="inlineStr">
@@ -51096,7 +51096,7 @@
       <c r="C2190" t="inlineStr"/>
       <c r="D2190" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2190" t="inlineStr">
@@ -51142,7 +51142,7 @@
       <c r="C2192" t="inlineStr"/>
       <c r="D2192" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2192" t="inlineStr">
@@ -51165,7 +51165,7 @@
       <c r="C2193" t="inlineStr"/>
       <c r="D2193" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2193" t="inlineStr">
@@ -51188,7 +51188,7 @@
       <c r="C2194" t="inlineStr"/>
       <c r="D2194" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2194" t="inlineStr">
@@ -51234,7 +51234,7 @@
       <c r="C2196" t="inlineStr"/>
       <c r="D2196" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2196" t="inlineStr">
@@ -51349,7 +51349,7 @@
       <c r="C2201" t="inlineStr"/>
       <c r="D2201" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2201" t="inlineStr">
@@ -51372,7 +51372,7 @@
       <c r="C2202" t="inlineStr"/>
       <c r="D2202" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2202" t="inlineStr">
@@ -51441,7 +51441,7 @@
       <c r="C2205" t="inlineStr"/>
       <c r="D2205" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2205" t="inlineStr">
@@ -51464,7 +51464,7 @@
       <c r="C2206" t="inlineStr"/>
       <c r="D2206" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2206" t="inlineStr">
@@ -51510,7 +51510,7 @@
       <c r="C2208" t="inlineStr"/>
       <c r="D2208" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2208" t="inlineStr">
@@ -51533,7 +51533,7 @@
       <c r="C2209" t="inlineStr"/>
       <c r="D2209" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2209" t="inlineStr">
@@ -51579,7 +51579,7 @@
       <c r="C2211" t="inlineStr"/>
       <c r="D2211" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2211" t="inlineStr">
@@ -51602,7 +51602,7 @@
       <c r="C2212" t="inlineStr"/>
       <c r="D2212" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2212" t="inlineStr">
@@ -51625,7 +51625,7 @@
       <c r="C2213" t="inlineStr"/>
       <c r="D2213" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2213" t="inlineStr">
@@ -51648,7 +51648,7 @@
       <c r="C2214" t="inlineStr"/>
       <c r="D2214" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2214" t="inlineStr">
@@ -51671,7 +51671,7 @@
       <c r="C2215" t="inlineStr"/>
       <c r="D2215" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2215" t="inlineStr">
@@ -51694,7 +51694,7 @@
       <c r="C2216" t="inlineStr"/>
       <c r="D2216" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2216" t="inlineStr">
@@ -51717,7 +51717,7 @@
       <c r="C2217" t="inlineStr"/>
       <c r="D2217" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2217" t="inlineStr">
@@ -51809,7 +51809,7 @@
       <c r="C2221" t="inlineStr"/>
       <c r="D2221" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2221" t="inlineStr">
@@ -51836,7 +51836,7 @@
       <c r="C2222" t="inlineStr"/>
       <c r="D2222" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2222" t="inlineStr">
@@ -51859,7 +51859,7 @@
       <c r="C2223" t="inlineStr"/>
       <c r="D2223" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2223" t="inlineStr">
@@ -51951,7 +51951,7 @@
       <c r="C2227" t="inlineStr"/>
       <c r="D2227" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2227" t="inlineStr">
@@ -51974,7 +51974,7 @@
       <c r="C2228" t="inlineStr"/>
       <c r="D2228" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2228" t="inlineStr">
@@ -51997,7 +51997,7 @@
       <c r="C2229" t="inlineStr"/>
       <c r="D2229" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2229" t="inlineStr">
@@ -52158,7 +52158,7 @@
       <c r="C2236" t="inlineStr"/>
       <c r="D2236" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2236" t="inlineStr">
@@ -52181,7 +52181,7 @@
       <c r="C2237" t="inlineStr"/>
       <c r="D2237" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2237" t="inlineStr">
@@ -52227,7 +52227,7 @@
       <c r="C2239" t="inlineStr"/>
       <c r="D2239" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2239" t="inlineStr">
@@ -52273,7 +52273,7 @@
       <c r="C2241" t="inlineStr"/>
       <c r="D2241" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2241" t="inlineStr">
@@ -52457,7 +52457,7 @@
       <c r="C2249" t="inlineStr"/>
       <c r="D2249" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2249" t="inlineStr">
@@ -52503,7 +52503,7 @@
       <c r="C2251" t="inlineStr"/>
       <c r="D2251" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2251" t="inlineStr">
@@ -52526,7 +52526,7 @@
       <c r="C2252" t="inlineStr"/>
       <c r="D2252" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2252" t="inlineStr">
@@ -52572,7 +52572,7 @@
       <c r="C2254" t="inlineStr"/>
       <c r="D2254" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2254" t="inlineStr">
@@ -52595,7 +52595,7 @@
       <c r="C2255" t="inlineStr"/>
       <c r="D2255" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2255" t="inlineStr">
@@ -52618,7 +52618,7 @@
       <c r="C2256" t="inlineStr"/>
       <c r="D2256" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2256" t="inlineStr">
@@ -52641,7 +52641,7 @@
       <c r="C2257" t="inlineStr"/>
       <c r="D2257" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2257" t="inlineStr">
@@ -52737,7 +52737,7 @@
       <c r="C2261" t="inlineStr"/>
       <c r="D2261" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2261" t="inlineStr">
@@ -52783,7 +52783,7 @@
       <c r="C2263" t="inlineStr"/>
       <c r="D2263" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2263" t="inlineStr">
@@ -52875,7 +52875,7 @@
       <c r="C2267" t="inlineStr"/>
       <c r="D2267" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2267" t="inlineStr">
@@ -52898,7 +52898,7 @@
       <c r="C2268" t="inlineStr"/>
       <c r="D2268" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2268" t="inlineStr">
@@ -52921,7 +52921,7 @@
       <c r="C2269" t="inlineStr"/>
       <c r="D2269" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2269" t="inlineStr">
@@ -52967,7 +52967,7 @@
       <c r="C2271" t="inlineStr"/>
       <c r="D2271" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2271" t="inlineStr">
@@ -52990,7 +52990,7 @@
       <c r="C2272" t="inlineStr"/>
       <c r="D2272" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2272" t="inlineStr">
@@ -53036,7 +53036,7 @@
       <c r="C2274" t="inlineStr"/>
       <c r="D2274" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2274" t="inlineStr">
@@ -53059,7 +53059,7 @@
       <c r="C2275" t="inlineStr"/>
       <c r="D2275" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2275" t="inlineStr">
@@ -53105,7 +53105,7 @@
       <c r="C2277" t="inlineStr"/>
       <c r="D2277" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2277" t="inlineStr">
@@ -53128,7 +53128,7 @@
       <c r="C2278" t="inlineStr"/>
       <c r="D2278" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2278" t="inlineStr">
@@ -53151,7 +53151,7 @@
       <c r="C2279" t="inlineStr"/>
       <c r="D2279" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2279" t="inlineStr">
@@ -53174,7 +53174,7 @@
       <c r="C2280" t="inlineStr"/>
       <c r="D2280" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2280" t="inlineStr">
@@ -53220,7 +53220,7 @@
       <c r="C2282" t="inlineStr"/>
       <c r="D2282" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2282" t="inlineStr">
@@ -53289,7 +53289,7 @@
       <c r="C2285" t="inlineStr"/>
       <c r="D2285" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2285" t="inlineStr">
@@ -53312,7 +53312,7 @@
       <c r="C2286" t="inlineStr"/>
       <c r="D2286" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2286" t="inlineStr">
@@ -53335,7 +53335,7 @@
       <c r="C2287" t="inlineStr"/>
       <c r="D2287" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2287" t="inlineStr">
@@ -53381,7 +53381,7 @@
       <c r="C2289" t="inlineStr"/>
       <c r="D2289" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2289" t="inlineStr">
@@ -53404,7 +53404,7 @@
       <c r="C2290" t="inlineStr"/>
       <c r="D2290" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2290" t="inlineStr">
@@ -53496,7 +53496,7 @@
       <c r="C2294" t="inlineStr"/>
       <c r="D2294" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2294" t="inlineStr">
@@ -53523,7 +53523,7 @@
       <c r="C2295" t="inlineStr"/>
       <c r="D2295" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2295" t="inlineStr">
@@ -53546,7 +53546,7 @@
       <c r="C2296" t="inlineStr"/>
       <c r="D2296" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2296" t="inlineStr">
@@ -53569,7 +53569,7 @@
       <c r="C2297" t="inlineStr"/>
       <c r="D2297" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2297" t="inlineStr">
@@ -53592,7 +53592,7 @@
       <c r="C2298" t="inlineStr"/>
       <c r="D2298" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2298" t="inlineStr">
@@ -53638,7 +53638,7 @@
       <c r="C2300" t="inlineStr"/>
       <c r="D2300" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2300" t="inlineStr">
@@ -53845,7 +53845,7 @@
       <c r="C2309" t="inlineStr"/>
       <c r="D2309" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2309" t="inlineStr">
@@ -53868,7 +53868,7 @@
       <c r="C2310" t="inlineStr"/>
       <c r="D2310" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2310" t="inlineStr">
@@ -53914,7 +53914,7 @@
       <c r="C2312" t="inlineStr"/>
       <c r="D2312" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2312" t="inlineStr">
@@ -53937,7 +53937,7 @@
       <c r="C2313" t="inlineStr"/>
       <c r="D2313" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E2313" t="inlineStr">
@@ -53960,7 +53960,7 @@
       <c r="C2314" t="inlineStr"/>
       <c r="D2314" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2314" t="inlineStr">
@@ -53983,7 +53983,7 @@
       <c r="C2315" t="inlineStr"/>
       <c r="D2315" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2315" t="inlineStr">
@@ -54006,7 +54006,7 @@
       <c r="C2316" t="inlineStr"/>
       <c r="D2316" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E2316" t="inlineStr">
@@ -54029,7 +54029,7 @@
       <c r="C2317" t="inlineStr"/>
       <c r="D2317" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2317" t="inlineStr">
@@ -54052,7 +54052,7 @@
       <c r="C2318" t="inlineStr"/>
       <c r="D2318" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E2318" t="inlineStr">
@@ -54075,7 +54075,7 @@
       <c r="C2319" t="inlineStr"/>
       <c r="D2319" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2319" t="inlineStr">
@@ -54098,7 +54098,7 @@
       <c r="C2320" t="inlineStr"/>
       <c r="D2320" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E2320" t="inlineStr">
@@ -54121,7 +54121,7 @@
       <c r="C2321" t="inlineStr"/>
       <c r="D2321" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E2321" t="inlineStr">
@@ -54144,7 +54144,7 @@
       <c r="C2322" t="inlineStr"/>
       <c r="D2322" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E2322" t="inlineStr">
@@ -54167,7 +54167,7 @@
       <c r="C2323" t="inlineStr"/>
       <c r="D2323" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2323" t="inlineStr">
@@ -54190,7 +54190,7 @@
       <c r="C2324" t="inlineStr"/>
       <c r="D2324" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2324" t="inlineStr">
@@ -54240,7 +54240,7 @@
       <c r="C2326" t="inlineStr"/>
       <c r="D2326" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E2326" t="inlineStr">
@@ -54263,7 +54263,7 @@
       <c r="C2327" t="inlineStr"/>
       <c r="D2327" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E2327" t="inlineStr">
@@ -54286,7 +54286,7 @@
       <c r="C2328" t="inlineStr"/>
       <c r="D2328" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2328" t="inlineStr">
@@ -54309,7 +54309,7 @@
       <c r="C2329" t="inlineStr"/>
       <c r="D2329" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E2329" t="inlineStr">
@@ -54332,7 +54332,7 @@
       <c r="C2330" t="inlineStr"/>
       <c r="D2330" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2330" t="inlineStr">
@@ -54355,7 +54355,7 @@
       <c r="C2331" t="inlineStr"/>
       <c r="D2331" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2331" t="inlineStr">
@@ -54401,7 +54401,7 @@
       <c r="C2333" t="inlineStr"/>
       <c r="D2333" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2333" t="inlineStr">
@@ -54447,7 +54447,7 @@
       <c r="C2335" t="inlineStr"/>
       <c r="D2335" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2335" t="inlineStr">
@@ -54470,7 +54470,7 @@
       <c r="C2336" t="inlineStr"/>
       <c r="D2336" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2336" t="inlineStr">
@@ -54493,7 +54493,7 @@
       <c r="C2337" t="inlineStr"/>
       <c r="D2337" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2337" t="inlineStr">
@@ -54516,7 +54516,7 @@
       <c r="C2338" t="inlineStr"/>
       <c r="D2338" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2338" t="inlineStr">
@@ -54539,7 +54539,7 @@
       <c r="C2339" t="inlineStr"/>
       <c r="D2339" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2339" t="inlineStr">
@@ -54562,7 +54562,7 @@
       <c r="C2340" t="inlineStr"/>
       <c r="D2340" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2340" t="inlineStr">
@@ -54585,7 +54585,7 @@
       <c r="C2341" t="inlineStr"/>
       <c r="D2341" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E2341" t="inlineStr">
@@ -54608,7 +54608,7 @@
       <c r="C2342" t="inlineStr"/>
       <c r="D2342" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2342" t="inlineStr">
@@ -54631,7 +54631,7 @@
       <c r="C2343" t="inlineStr"/>
       <c r="D2343" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2343" t="inlineStr">
@@ -54654,7 +54654,7 @@
       <c r="C2344" t="inlineStr"/>
       <c r="D2344" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2344" t="inlineStr">
@@ -54677,7 +54677,7 @@
       <c r="C2345" t="inlineStr"/>
       <c r="D2345" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E2345" t="inlineStr">
@@ -54700,7 +54700,7 @@
       <c r="C2346" t="inlineStr"/>
       <c r="D2346" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2346" t="inlineStr">
@@ -54723,7 +54723,7 @@
       <c r="C2347" t="inlineStr"/>
       <c r="D2347" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E2347" t="inlineStr">
@@ -54746,7 +54746,7 @@
       <c r="C2348" t="inlineStr"/>
       <c r="D2348" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2348" t="inlineStr">
@@ -54769,7 +54769,7 @@
       <c r="C2349" t="inlineStr"/>
       <c r="D2349" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2349" t="inlineStr">
@@ -54792,7 +54792,7 @@
       <c r="C2350" t="inlineStr"/>
       <c r="D2350" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2350" t="inlineStr">
@@ -54815,7 +54815,7 @@
       <c r="C2351" t="inlineStr"/>
       <c r="D2351" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E2351" t="inlineStr">
@@ -54838,7 +54838,7 @@
       <c r="C2352" t="inlineStr"/>
       <c r="D2352" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2352" t="inlineStr">
@@ -54861,7 +54861,7 @@
       <c r="C2353" t="inlineStr"/>
       <c r="D2353" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2353" t="inlineStr">
@@ -54930,7 +54930,7 @@
       <c r="C2356" t="inlineStr"/>
       <c r="D2356" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2356" t="inlineStr">
@@ -54999,7 +54999,7 @@
       <c r="C2359" t="inlineStr"/>
       <c r="D2359" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2359" t="inlineStr">
@@ -55022,7 +55022,7 @@
       <c r="C2360" t="inlineStr"/>
       <c r="D2360" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2360" t="inlineStr">
@@ -55045,7 +55045,7 @@
       <c r="C2361" t="inlineStr"/>
       <c r="D2361" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2361" t="inlineStr">
@@ -55068,7 +55068,7 @@
       <c r="C2362" t="inlineStr"/>
       <c r="D2362" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2362" t="inlineStr">
